--- a/对比.xlsx
+++ b/对比.xlsx
@@ -77,7 +77,7 @@
     <t>存在问题</t>
   </si>
   <si>
-    <t>支持的格式不全，且版本本身已经存在问题</t>
+    <t>版本本身已经存在问题,迟迟未更新，系统要求比较严格</t>
   </si>
   <si>
     <t>效率不如jacob，但是不会出现一些卡死的bug，老系统可能需要对应的版本</t>
@@ -103,12 +103,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -126,88 +141,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,45 +247,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,7 +276,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,181 +336,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +467,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,23 +503,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,17 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,159 +572,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1093,8 +1077,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1110,281 +1094,281 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" ht="409" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" ht="28.8" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
